--- a/Models/env_data_all_locations.xlsx
+++ b/Models/env_data_all_locations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MyPassport/Cloned_repositories/NbdLamprey2/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CookieMonsterDrive/Cloned_repositories/NbdLamprey2/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FD10F37-2C12-2241-B902-34BEEFC72C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0722513-0EA6-FF4A-963E-D368F00F9467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24700" windowHeight="16380" xr2:uid="{66E29E5B-C57E-DD44-857D-47B703A04AF7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24700" windowHeight="16180" xr2:uid="{66E29E5B-C57E-DD44-857D-47B703A04AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Models/env_data_all_locations.xlsx
+++ b/Models/env_data_all_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CookieMonsterDrive/Cloned_repositories/NbdLamprey2/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ClonedRepositories\NbdLamprey2\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0722513-0EA6-FF4A-963E-D368F00F9467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286A657-F844-46C7-ACD8-F58C98917F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24700" windowHeight="16180" xr2:uid="{66E29E5B-C57E-DD44-857D-47B703A04AF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66E29E5B-C57E-DD44-857D-47B703A04AF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>Lake</t>
   </si>
@@ -45,9 +45,6 @@
     <t>July</t>
   </si>
   <si>
-    <t>Ontario</t>
-  </si>
-  <si>
     <t>June</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Swan</t>
   </si>
   <si>
-    <t>Sterling</t>
-  </si>
-  <si>
     <t>Tahquamenon</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
   </si>
   <si>
     <t>TWO</t>
-  </si>
-  <si>
-    <t>STE</t>
   </si>
   <si>
     <t>Drainage</t>
@@ -225,12 +216,6 @@
     </r>
   </si>
   <si>
-    <t>man2018</t>
-  </si>
-  <si>
-    <t>mir2017</t>
-  </si>
-  <si>
     <t>YearSinceTreat</t>
   </si>
   <si>
@@ -241,6 +226,12 @@
   </si>
   <si>
     <t>Pigeon</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>MIR2016</t>
   </si>
 </sst>
 </file>
@@ -335,13 +326,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,30 +647,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB4BF32-D153-6E4B-B677-B68BD083A494}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -687,68 +678,68 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="L1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="9">
         <v>2017</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="10">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11">
         <v>1605</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <v>5878</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>11301</v>
       </c>
       <c r="I2" s="8">
@@ -766,36 +757,36 @@
       <c r="M2" s="8">
         <v>2</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <v>11301</v>
       </c>
       <c r="O2" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9">
         <v>2017</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="10">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11">
         <v>1259</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="11">
         <v>984</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>1654</v>
       </c>
       <c r="I3" s="8">
@@ -813,22 +804,22 @@
       <c r="M3" s="8">
         <v>2</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="11">
         <v>1654</v>
       </c>
       <c r="O3" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="9">
         <v>2017</v>
@@ -836,13 +827,13 @@
       <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>396</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="11">
         <v>3778</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>1097</v>
       </c>
       <c r="I4" s="8">
@@ -860,36 +851,36 @@
       <c r="M4" s="8">
         <v>2</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="11">
         <v>1097</v>
       </c>
       <c r="O4" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9">
         <v>2018</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11">
         <v>3194</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <v>21024</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>36558</v>
       </c>
       <c r="I5" s="8">
@@ -907,36 +898,36 @@
       <c r="M5" s="8">
         <v>1</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="11">
         <v>36558</v>
       </c>
       <c r="O5" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9">
         <v>2016</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="10">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="11">
         <v>5901</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>1637</v>
       </c>
       <c r="I6" s="8">
@@ -954,22 +945,22 @@
       <c r="M6" s="8">
         <v>2</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="11">
         <v>1637</v>
       </c>
       <c r="O6" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9">
         <v>2000</v>
@@ -977,14 +968,14 @@
       <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>54</v>
+      <c r="F7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="I7" s="8">
         <v>1550</v>
@@ -999,38 +990,38 @@
         <v>3</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="O7" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9">
         <v>2018</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11">
         <v>1846</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <v>1542</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>2124</v>
       </c>
       <c r="I8" s="8">
@@ -1048,37 +1039,37 @@
       <c r="M8" s="8">
         <v>1</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="11">
         <v>2124</v>
       </c>
       <c r="O8" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="9">
         <v>2017</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="I9" s="8">
         <v>1216</v>
@@ -1087,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L9" s="8">
         <v>1</v>
@@ -1095,36 +1086,36 @@
       <c r="M9" s="8">
         <v>2</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>54</v>
+      <c r="N9" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="O9" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9">
         <v>2016</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="10">
+        <v>13</v>
+      </c>
+      <c r="F10" s="11">
         <v>8191</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="11">
         <v>6549</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="11">
         <v>10420</v>
       </c>
       <c r="I10" s="8">
@@ -1142,36 +1133,36 @@
       <c r="M10" s="8">
         <v>2</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="11">
         <v>10420</v>
       </c>
       <c r="O10" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8">
         <v>2016</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="11">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12">
         <v>2486</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>2972</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12">
         <v>7219</v>
       </c>
       <c r="I11" s="8">
@@ -1189,36 +1180,36 @@
       <c r="M11" s="8">
         <v>2</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="12">
         <v>7219</v>
       </c>
       <c r="O11" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="9">
         <v>2013</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11">
         <v>4705</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="11">
         <v>4519</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="11">
         <v>3113</v>
       </c>
       <c r="I12" s="8">
@@ -1236,37 +1227,37 @@
       <c r="M12" s="8">
         <v>3</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="11">
         <v>4705</v>
       </c>
       <c r="O12" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="9">
         <v>2018</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="9">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11">
         <v>18</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="11">
         <v>18</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>54</v>
+      <c r="H13" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="I13" s="8">
         <v>102</v>
@@ -1283,37 +1274,37 @@
       <c r="M13" s="8">
         <v>1</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>54</v>
+      <c r="N13" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="O13" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8">
         <v>2017</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="I14" s="8">
         <v>7327</v>
@@ -1322,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L14" s="8">
         <v>1</v>
@@ -1330,22 +1321,22 @@
       <c r="M14" s="8">
         <v>2</v>
       </c>
-      <c r="N14" s="9" t="s">
-        <v>54</v>
+      <c r="N14" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="O14" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="9">
         <v>2016</v>
@@ -1353,13 +1344,13 @@
       <c r="E15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="11">
         <v>6016</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="11">
         <v>2539</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="11">
         <v>4813</v>
       </c>
       <c r="I15" s="8">
@@ -1377,220 +1368,173 @@
       <c r="M15" s="8">
         <v>3</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="11">
         <v>4813</v>
       </c>
       <c r="O15" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="9">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1891</v>
-      </c>
-      <c r="H16" s="10">
-        <v>2868</v>
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="I16" s="8">
-        <v>80</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L16" s="8">
         <v>1</v>
       </c>
       <c r="M16" s="8">
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <v>2868</v>
+        <v>6</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="O16" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="F17" s="11">
+        <v>9465</v>
+      </c>
+      <c r="G17" s="11">
+        <v>10549</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3974</v>
       </c>
       <c r="I17" s="8">
-        <v>5</v>
-      </c>
-      <c r="J17" s="7">
-        <v>2</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>54</v>
+        <v>2176</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>15.5</v>
       </c>
       <c r="L17" s="8">
         <v>1</v>
       </c>
       <c r="M17" s="8">
-        <v>6</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>54</v>
+        <v>4</v>
+      </c>
+      <c r="N17" s="11">
+        <v>3974</v>
       </c>
       <c r="O17" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="10">
-        <v>9465</v>
-      </c>
-      <c r="G18" s="10">
-        <v>10549</v>
-      </c>
-      <c r="H18" s="10">
-        <v>3974</v>
+        <v>20</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="I18" s="8">
-        <v>2176</v>
+        <v>521</v>
       </c>
       <c r="J18" s="8">
         <v>1</v>
       </c>
-      <c r="K18" s="8">
-        <v>15.5</v>
+      <c r="K18" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="L18" s="8">
         <v>1</v>
       </c>
       <c r="M18" s="8">
-        <v>4</v>
-      </c>
-      <c r="N18" s="10">
-        <v>3974</v>
+        <v>3</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="O18" s="8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2016</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="8">
-        <v>521</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8">
-        <v>3</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
